--- a/biology/Neurosciences/Glasgow_Outcome_Scale/Glasgow_Outcome_Scale.xlsx
+++ b/biology/Neurosciences/Glasgow_Outcome_Scale/Glasgow_Outcome_Scale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Glasgow Outcome Score (GOS) est une échelle destinée aux patients atteints de lésions cérébrales, telles que des traumatismes cérébraux, qui regroupe les victimes selon le degré objectif de récupération. La première description remonte à 1975 par Jennett et Bond[1]. Le GOS ne doit pas être confondu avec le Glasgow Coma Scale (échelle de Glasgow) utilisé pour évaluer la profondeur d'un coma.
+Le Glasgow Outcome Score (GOS) est une échelle destinée aux patients atteints de lésions cérébrales, telles que des traumatismes cérébraux, qui regroupe les victimes selon le degré objectif de récupération. La première description remonte à 1975 par Jennett et Bond. Le GOS ne doit pas être confondu avec le Glasgow Coma Scale (échelle de Glasgow) utilisé pour évaluer la profondeur d'un coma.
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Glasgow Outcome Score s'applique aux patients atteints de lésions cérébrales permettant l'évaluation objective de leur rétablissement dans cinq catégories. Cela permet de prédire le déroulement à long terme de la rééducation en ce qui concerne le retour à l'emploi et dans les activités de la vie quotidienne[réf. nécessaire].
-Échelle élargie
-Le Glasgow Outcome Scale Extended (GOSE) est une version étendue de l'échelle[2],[3]. Il subdivise les trois catégories supérieures[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Glasgow_Outcome_Scale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glasgow_Outcome_Scale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Échelle élargie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Glasgow Outcome Scale Extended (GOSE) est une version étendue de l'échelle,. Il subdivise les trois catégories supérieures :
 </t>
         </is>
       </c>
